--- a/datasets/xHI_EoR.xlsx
+++ b/datasets/xHI_EoR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C759270F-7C71-4362-8F0B-CB0E3C32E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBB2B7-9A96-45F8-AEBE-CCCC6F6E3A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14388" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4476" yWindow="504" windowWidth="18564" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,30 +147,6 @@
     <t>&gt;0.28</t>
   </si>
   <si>
-    <t>&gt;0.79</t>
-  </si>
-  <si>
-    <t>&gt;0.87</t>
-  </si>
-  <si>
-    <t>&gt;0.94</t>
-  </si>
-  <si>
-    <t>&gt;0.33</t>
-  </si>
-  <si>
-    <t>&gt;0.15</t>
-  </si>
-  <si>
-    <t>&gt;0.18</t>
-  </si>
-  <si>
-    <t>&gt;0.21</t>
-  </si>
-  <si>
-    <t>&gt;0.2</t>
-  </si>
-  <si>
     <t>Jin+23</t>
   </si>
   <si>
@@ -181,6 +157,30 @@
   </si>
   <si>
     <t>Bolan+22</t>
+  </si>
+  <si>
+    <t>&lt;0.21</t>
+  </si>
+  <si>
+    <t>&lt;0.2</t>
+  </si>
+  <si>
+    <t>&lt;0.15</t>
+  </si>
+  <si>
+    <t>&lt;0.18</t>
+  </si>
+  <si>
+    <t>&lt;0.33</t>
+  </si>
+  <si>
+    <t>&lt;0.94</t>
+  </si>
+  <si>
+    <t>&lt;0.87</t>
+  </si>
+  <si>
+    <t>&lt;0.79</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
         <v>6.9</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>6.7</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0.06</v>
@@ -1088,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1096,7 +1096,7 @@
         <v>6.5</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0.03</v>
@@ -1114,7 +1114,7 @@
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
         <v>6.3</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>0.04</v>
@@ -1140,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1750,7 +1750,7 @@
         <v>6.3</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0.05</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0.05</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0.05</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0.05</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E49">
         <v>0</v>

--- a/datasets/xHI_EoR.xlsx
+++ b/datasets/xHI_EoR.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBB2B7-9A96-45F8-AEBE-CCCC6F6E3A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDCC7D-2039-45C9-B6C6-1407D7A9C106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4476" yWindow="504" windowWidth="18564" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>z</t>
   </si>
@@ -181,13 +192,31 @@
   </si>
   <si>
     <t>&lt;0.79</t>
+  </si>
+  <si>
+    <t>&lt; 0.37</t>
+  </si>
+  <si>
+    <t>&lt;0.29</t>
+  </si>
+  <si>
+    <t>Zhu+22</t>
+  </si>
+  <si>
+    <t>&lt;0.17</t>
+  </si>
+  <si>
+    <t>&lt;0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +226,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,9 +259,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="A20:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,44 +593,46 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5.9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -599,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -607,54 +649,54 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7.08</v>
-      </c>
-      <c r="D4">
-        <v>0.4</v>
+        <v>5.6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="F4">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="G4">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7.54</v>
+        <v>7.08</v>
       </c>
       <c r="D5">
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G5">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="H5">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -662,45 +704,45 @@
         <v>7.54</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="H6">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7.09</v>
+        <v>7.54</v>
       </c>
       <c r="D7">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="F7">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="G7">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="H7">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I7" t="s">
         <v>3</v>
@@ -711,42 +753,42 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>7.09</v>
       </c>
       <c r="D8">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="E8">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="F8">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>0.21</v>
+        <v>0.59</v>
       </c>
       <c r="E9">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F9">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -755,30 +797,24 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7.9</v>
-      </c>
-      <c r="B10">
-        <v>0.6</v>
-      </c>
-      <c r="C10">
-        <v>0.6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
+        <v>7.5</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -787,88 +823,88 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>0.7</v>
+        <v>7.9</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7.5</v>
-      </c>
-      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0.7</v>
+      </c>
+      <c r="E12">
         <v>0.2</v>
       </c>
-      <c r="C12">
-        <v>0.2</v>
-      </c>
-      <c r="D12">
-        <v>0.39</v>
-      </c>
-      <c r="E12">
-        <v>0.22</v>
-      </c>
       <c r="F12">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>0.83</v>
+        <v>0.39</v>
       </c>
       <c r="E13">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="F13">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -877,24 +913,30 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>6.7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
+        <v>7.6</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="C14">
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <v>0.83</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -911,10 +953,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -929,24 +971,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7.3</v>
       </c>
-      <c r="D16">
-        <v>0.69</v>
+      <c r="D16" t="s">
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -958,21 +1000,21 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="D17">
-        <v>0.28000000000000003</v>
+        <v>0.69</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="F17">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -989,13 +1031,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>0.08</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E18">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F18">
         <v>0.05</v>
@@ -1015,16 +1057,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>7.29</v>
+        <v>6.6</v>
       </c>
       <c r="D19">
-        <v>0.49</v>
+        <v>0.08</v>
       </c>
       <c r="E19">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F19">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1033,102 +1075,126 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>6.9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>41</v>
+      <c r="A20" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4">
+        <f>0.375690432016962-0.284781341</f>
+        <v>9.0909091016961985E-2</v>
+      </c>
+      <c r="F20" s="4">
+        <f>0.375690432016962-0.284781341</f>
+        <v>9.0909091016961985E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6.7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21">
-        <v>0.06</v>
-      </c>
-      <c r="F21">
-        <v>0.09</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>40</v>
+      <c r="A21" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4">
+        <f>0.218542274052478-0.166594222</f>
+        <v>5.1948052052478016E-2</v>
+      </c>
+      <c r="F21" s="4">
+        <f>0.218542274052478-0.166594222</f>
+        <v>5.1948052052478016E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>6.5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22">
-        <v>0.03</v>
-      </c>
-      <c r="F22">
-        <v>0.03</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>40</v>
+      <c r="A22" s="3">
+        <v>5.55</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="4">
+        <f>0.0847707394646167-0.048417705</f>
+        <v>3.6353034464616706E-2</v>
+      </c>
+      <c r="F22" s="4">
+        <f>0.0847707394646167-0.048417705</f>
+        <v>3.6353034464616706E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>6.3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
+        <v>7.29</v>
+      </c>
+      <c r="D23">
+        <v>0.49</v>
       </c>
       <c r="E23">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="F23">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1137,18 +1203,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>10.6</v>
+        <v>6.9</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1166,27 +1232,21 @@
         <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9.8010000000000002</v>
-      </c>
-      <c r="B25">
-        <v>1.599</v>
-      </c>
-      <c r="C25">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="D25">
-        <v>0.83</v>
+        <v>6.7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
       </c>
       <c r="E25">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F25">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1195,30 +1255,24 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>7.96</v>
-      </c>
-      <c r="B26">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="C26">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D26">
-        <v>0.63</v>
+        <v>6.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="F26">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1227,30 +1281,24 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>7.452</v>
-      </c>
-      <c r="B27">
-        <v>0.1</v>
-      </c>
-      <c r="C27">
-        <v>0.251</v>
-      </c>
-      <c r="D27">
-        <v>0.54</v>
+        <v>6.3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="F27">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1259,30 +1307,24 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>7.14</v>
-      </c>
-      <c r="B28">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C28">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.46</v>
+        <v>10.6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1291,30 +1333,30 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>6</v>
+        <v>9.8010000000000002</v>
       </c>
       <c r="B29">
-        <v>0.05</v>
+        <v>1.599</v>
       </c>
       <c r="C29">
-        <v>0.05</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="D29">
-        <v>0.1744</v>
+        <v>0.83</v>
       </c>
       <c r="E29">
-        <v>9.2499999999999999E-2</v>
+        <v>0.12</v>
       </c>
       <c r="F29">
-        <v>0.1089</v>
+        <v>0.21</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1323,30 +1365,30 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>5.9</v>
+        <v>7.96</v>
       </c>
       <c r="B30">
-        <v>0.05</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="C30">
-        <v>0.05</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D30">
-        <v>0.12820000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="E30">
-        <v>0.126</v>
+        <v>0.26</v>
       </c>
       <c r="F30">
-        <v>7.3599999999999999E-2</v>
+        <v>0.36</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1355,30 +1397,30 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5.8</v>
+        <v>7.452</v>
       </c>
       <c r="B31">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C31">
-        <v>0.05</v>
+        <v>0.251</v>
       </c>
       <c r="D31">
-        <v>9.3640000000000001E-2</v>
+        <v>0.54</v>
       </c>
       <c r="E31">
-        <v>6.182E-2</v>
+        <v>0.32</v>
       </c>
       <c r="F31">
-        <v>6.3909999999999995E-2</v>
+        <v>0.36</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1387,30 +1429,30 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>5.7</v>
+        <v>7.14</v>
       </c>
       <c r="B32">
-        <v>0.05</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C32">
-        <v>0.05</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D32">
-        <v>5.5960000000000003E-2</v>
+        <v>0.46</v>
       </c>
       <c r="E32">
-        <v>7.1410000000000001E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F32">
-        <v>3.3619999999999997E-2</v>
+        <v>0.32</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1419,15 +1461,15 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>0.05</v>
@@ -1436,13 +1478,13 @@
         <v>0.05</v>
       </c>
       <c r="D33">
-        <v>1.6299999999999999E-2</v>
+        <v>0.1744</v>
       </c>
       <c r="E33">
-        <v>2.5440000000000001E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="F33">
-        <v>8.3400000000000002E-3</v>
+        <v>0.1089</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1459,7 +1501,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="B34">
         <v>0.05</v>
@@ -1467,14 +1509,14 @@
       <c r="C34">
         <v>0.05</v>
       </c>
-      <c r="D34" s="1">
-        <v>7.2459999999999998E-3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2.7310999999999998E-2</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3.506E-3</v>
+      <c r="D34">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.126</v>
+      </c>
+      <c r="F34">
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1491,7 +1533,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="B35">
         <v>0.05</v>
@@ -1499,14 +1541,14 @@
       <c r="C35">
         <v>0.05</v>
       </c>
-      <c r="D35" s="1">
-        <v>3.5330000000000001E-3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1.5084999999999999E-2</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2.457E-3</v>
+      <c r="D35">
+        <v>9.3640000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>6.182E-2</v>
+      </c>
+      <c r="F35">
+        <v>6.3909999999999995E-2</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1523,7 +1565,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="B36">
         <v>0.05</v>
@@ -1531,14 +1573,14 @@
       <c r="C36">
         <v>0.05</v>
       </c>
-      <c r="D36" s="1">
-        <v>5.1000000000000004E-4</v>
-      </c>
-      <c r="E36" s="1">
-        <v>8.0440000000000004E-4</v>
-      </c>
-      <c r="F36" s="1">
-        <v>4.036E-4</v>
+      <c r="D36">
+        <v>5.5960000000000003E-2</v>
+      </c>
+      <c r="E36">
+        <v>7.1410000000000001E-2</v>
+      </c>
+      <c r="F36">
+        <v>3.3619999999999997E-2</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1555,7 +1597,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="B37">
         <v>0.05</v>
@@ -1563,14 +1605,14 @@
       <c r="C37">
         <v>0.05</v>
       </c>
-      <c r="D37" s="1">
-        <v>2.758E-5</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8.1100000000000003E-6</v>
-      </c>
-      <c r="F37" s="1">
-        <v>5.5500000000000002E-6</v>
+      <c r="D37">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.5440000000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>8.3400000000000002E-3</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1587,7 +1629,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="B38">
         <v>0.05</v>
@@ -1596,13 +1638,13 @@
         <v>0.05</v>
       </c>
       <c r="D38" s="1">
-        <v>2.6679999999999999E-5</v>
+        <v>7.2459999999999998E-3</v>
       </c>
       <c r="E38" s="1">
-        <v>1.343E-5</v>
+        <v>2.7310999999999998E-2</v>
       </c>
       <c r="F38" s="1">
-        <v>5.5300000000000004E-6</v>
+        <v>3.506E-3</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1619,7 +1661,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="B39">
         <v>0.05</v>
@@ -1628,13 +1670,13 @@
         <v>0.05</v>
       </c>
       <c r="D39" s="1">
-        <v>2.2670000000000001E-5</v>
+        <v>3.5330000000000001E-3</v>
       </c>
       <c r="E39" s="1">
-        <v>8.3999999999999992E-6</v>
+        <v>1.5084999999999999E-2</v>
       </c>
       <c r="F39" s="1">
-        <v>4.4900000000000002E-6</v>
+        <v>2.457E-3</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1651,22 +1693,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>6.87</v>
+        <v>5.3</v>
       </c>
       <c r="B40">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="C40">
-        <v>0.23</v>
-      </c>
-      <c r="D40">
-        <v>0.37</v>
-      </c>
-      <c r="E40">
-        <v>0.17</v>
-      </c>
-      <c r="F40">
-        <v>0.17</v>
+        <v>0.05</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8.0440000000000004E-4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.036E-4</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1675,30 +1717,30 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>6.46</v>
+        <v>5.2</v>
       </c>
       <c r="B41">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="C41">
-        <v>0.24</v>
-      </c>
-      <c r="D41">
-        <v>0.21</v>
-      </c>
-      <c r="E41">
-        <v>0.33</v>
-      </c>
-      <c r="F41">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.758E-5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8.1100000000000003E-6</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5.5500000000000002E-6</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1707,30 +1749,30 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B42">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C42">
-        <v>0.2</v>
-      </c>
-      <c r="D42">
-        <v>0.21</v>
-      </c>
-      <c r="E42">
-        <v>0.17</v>
-      </c>
-      <c r="F42">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.6679999999999999E-5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.343E-5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.5300000000000004E-6</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1739,24 +1781,30 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>6.3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>0.05</v>
+      </c>
+      <c r="C43">
+        <v>0.05</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.2670000000000001E-5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8.3999999999999992E-6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4.4900000000000002E-6</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1765,30 +1813,30 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>6.55</v>
+        <v>6.87</v>
       </c>
       <c r="B44">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="C44">
-        <v>0.05</v>
-      </c>
-      <c r="D44" t="s">
-        <v>47</v>
+        <v>0.23</v>
+      </c>
+      <c r="D44">
+        <v>0.37</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1800,27 +1848,27 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>6.35</v>
+        <v>6.46</v>
       </c>
       <c r="B45">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="C45">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="D45">
-        <v>0.28999999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="E45">
-        <v>0.14000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="F45">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1832,27 +1880,27 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>6.15</v>
+        <v>6.1</v>
       </c>
       <c r="B46">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C46">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D46">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E46">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="F46">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1864,21 +1912,15 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>6.05</v>
-      </c>
-      <c r="B47">
-        <v>0.05</v>
-      </c>
-      <c r="C47">
-        <v>0.05</v>
+        <v>6.3</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1893,15 +1935,15 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5.95</v>
+        <v>6.55</v>
       </c>
       <c r="B48">
         <v>0.05</v>
@@ -1910,7 +1952,7 @@
         <v>0.05</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1933,7 +1975,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5.9</v>
+        <v>6.35</v>
       </c>
       <c r="B49">
         <v>0.05</v>
@@ -1941,14 +1983,14 @@
       <c r="C49">
         <v>0.05</v>
       </c>
-      <c r="D49" t="s">
-        <v>44</v>
+      <c r="D49">
+        <v>0.28999999999999998</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1963,31 +2005,140 @@
         <v>33</v>
       </c>
     </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6.15</v>
+      </c>
+      <c r="B50">
+        <v>0.05</v>
+      </c>
+      <c r="C50">
+        <v>0.05</v>
+      </c>
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+      <c r="E50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.12</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>6.05</v>
+      </c>
+      <c r="B51">
+        <v>0.05</v>
+      </c>
+      <c r="C51">
+        <v>0.05</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>5.95</v>
+      </c>
+      <c r="B52">
+        <v>0.05</v>
+      </c>
+      <c r="C52">
+        <v>0.05</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D54">
+      <c r="A53">
+        <v>5.9</v>
+      </c>
+      <c r="B53">
+        <v>0.05</v>
+      </c>
+      <c r="C53">
+        <v>0.05</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D56">
-        <v>1</v>
+      <c r="J53" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D53:F56">
-    <sortCondition descending="1" ref="D53:D56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D57:F60">
+    <sortCondition descending="1" ref="D57:D60"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datasets/xHI_EoR.xlsx
+++ b/datasets/xHI_EoR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDCC7D-2039-45C9-B6C6-1407D7A9C106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89F091-DBA0-41F2-BDB7-40A83EAB1764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
   <si>
     <t>z</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Mason+19</t>
   </si>
   <si>
-    <t>Lya emitting galaxies</t>
-  </si>
-  <si>
     <t>Dark gaps</t>
   </si>
   <si>
@@ -207,6 +204,27 @@
   </si>
   <si>
     <t>&lt;0.05</t>
+  </si>
+  <si>
+    <t>Tang+24</t>
+  </si>
+  <si>
+    <t>Lya EW</t>
+  </si>
+  <si>
+    <t>Lya LF</t>
+  </si>
+  <si>
+    <t>Lya break galaxies</t>
+  </si>
+  <si>
+    <t>8.0-10.0</t>
+  </si>
+  <si>
+    <t>10.0-13.3</t>
+  </si>
+  <si>
+    <t>6.5-8.0</t>
   </si>
 </sst>
 </file>
@@ -214,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -263,8 +281,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="A20:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,59 +584,59 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>6.1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
         <v>0.2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>0.2</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -626,7 +644,7 @@
         <v>5.9</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0.05</v>
@@ -641,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -652,7 +670,7 @@
         <v>5.6</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0.05</v>
@@ -667,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -797,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -840,7 +858,7 @@
         <v>0.6</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -855,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
@@ -884,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -916,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -945,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -956,7 +974,7 @@
         <v>6.7</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -971,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -982,7 +1000,7 @@
         <v>7.3</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -997,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1023,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1049,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1075,112 +1093,112 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>5.95</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>0.2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>0.2</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3">
         <f>0.375690432016962-0.284781341</f>
         <v>9.0909091016961985E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f>0.375690432016962-0.284781341</f>
         <v>9.0909091016961985E-2</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5.75</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>5.75</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f>0.218542274052478-0.166594222</f>
         <v>5.1948052052478016E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <f>0.218542274052478-0.166594222</f>
         <v>5.1948052052478016E-2</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>54</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>5.55</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>0.2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>0.2</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3">
         <f>0.0847707394646167-0.048417705</f>
         <v>3.6353034464616706E-2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f>0.0847707394646167-0.048417705</f>
         <v>3.6353034464616706E-2</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>54</v>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1206,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1214,7 +1232,7 @@
         <v>6.9</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1229,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1240,7 +1258,7 @@
         <v>6.7</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>0.06</v>
@@ -1255,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1266,7 +1284,7 @@
         <v>6.5</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>0.03</v>
@@ -1281,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1292,7 +1310,7 @@
         <v>6.3</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>0.04</v>
@@ -1307,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1318,7 +1336,7 @@
         <v>10.6</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1333,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1368,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1400,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1432,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1464,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1493,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1525,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1557,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1589,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1621,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1653,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1685,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1717,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1749,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1781,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1813,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1848,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1880,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1912,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1920,7 +1938,7 @@
         <v>6.3</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1935,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1952,7 +1970,7 @@
         <v>0.05</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1970,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2002,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2034,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2048,7 +2066,7 @@
         <v>0.05</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2066,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2080,7 +2098,7 @@
         <v>0.05</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2098,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2112,7 +2130,7 @@
         <v>0.05</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2130,7 +2148,85 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54">
+        <v>0.89</v>
+      </c>
+      <c r="E54">
+        <v>0.08</v>
+      </c>
+      <c r="F54">
+        <v>0.21</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55">
+        <v>0.81</v>
+      </c>
+      <c r="E55">
+        <v>0.12</v>
+      </c>
+      <c r="F55">
+        <v>0.24</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>0.48</v>
+      </c>
+      <c r="E56">
+        <v>0.15</v>
+      </c>
+      <c r="F56">
+        <v>0.22</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/xHI_EoR.xlsx
+++ b/datasets/xHI_EoR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89F091-DBA0-41F2-BDB7-40A83EAB1764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC474F9-013F-4A29-80DB-53367A470E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>z</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>Lya LF</t>
-  </si>
-  <si>
-    <t>Lya break galaxies</t>
   </si>
   <si>
     <t>8.0-10.0</t>
@@ -565,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -873,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
@@ -2153,7 +2150,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>0.89</v>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55">
         <v>0.81</v>
@@ -2205,7 +2202,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56">
         <v>0.48</v>

--- a/datasets/xHI_EoR.xlsx
+++ b/datasets/xHI_EoR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC474F9-013F-4A29-80DB-53367A470E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C6AB41-14CE-4CD5-AC18-821DE371D855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="420" windowWidth="14124" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
   <si>
     <t>z</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>6.5-8.0</t>
+  </si>
+  <si>
+    <t>Kageura+25</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,6 +2229,134 @@
         <v>56</v>
       </c>
     </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>3.18</v>
+      </c>
+      <c r="C57">
+        <v>1.38</v>
+      </c>
+      <c r="D57">
+        <v>0.88</v>
+      </c>
+      <c r="E57">
+        <v>0.11</v>
+      </c>
+      <c r="F57">
+        <v>0.13</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>8.41</v>
+      </c>
+      <c r="B58">
+        <v>1.02</v>
+      </c>
+      <c r="C58">
+        <v>0.9</v>
+      </c>
+      <c r="D58">
+        <v>0.79</v>
+      </c>
+      <c r="E58">
+        <v>0.13</v>
+      </c>
+      <c r="F58">
+        <v>0.21</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>6.96</v>
+      </c>
+      <c r="B59">
+        <v>0.53</v>
+      </c>
+      <c r="C59">
+        <v>0.42</v>
+      </c>
+      <c r="D59">
+        <v>0.63</v>
+      </c>
+      <c r="E59">
+        <v>0.18</v>
+      </c>
+      <c r="F59">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5.9</v>
+      </c>
+      <c r="B60">
+        <v>0.49</v>
+      </c>
+      <c r="C60">
+        <v>0.4</v>
+      </c>
+      <c r="D60">
+        <v>0.17</v>
+      </c>
+      <c r="E60">
+        <v>0.23</v>
+      </c>
+      <c r="F60">
+        <v>0.16</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D57:F60">
     <sortCondition descending="1" ref="D57:D60"/>

--- a/datasets/xHI_EoR.xlsx
+++ b/datasets/xHI_EoR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C6AB41-14CE-4CD5-AC18-821DE371D855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD1546F-3309-4DC5-BDF0-4CDF5E90EB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="420" windowWidth="14124" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
   <si>
     <t>z</t>
   </si>
@@ -116,9 +116,6 @@
     <t>dzm</t>
   </si>
   <si>
-    <t>Umeda+23</t>
-  </si>
-  <si>
     <t>Ďurovčíková+24</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>CDF of Lya eff opt depth</t>
   </si>
   <si>
-    <t>Fausey+24</t>
-  </si>
-  <si>
     <t>Damping wing in GRB</t>
   </si>
   <si>
@@ -225,6 +219,24 @@
   </si>
   <si>
     <t>Kageura+25</t>
+  </si>
+  <si>
+    <t>Mason+25</t>
+  </si>
+  <si>
+    <t>Fausey+25</t>
+  </si>
+  <si>
+    <t>Umeda+24</t>
+  </si>
+  <si>
+    <t>Nakane+24</t>
+  </si>
+  <si>
+    <t>9.-13.</t>
+  </si>
+  <si>
+    <t>Jones+25</t>
   </si>
 </sst>
 </file>
@@ -563,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +630,7 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>0.2</v>
@@ -644,7 +656,7 @@
         <v>5.9</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0.05</v>
@@ -670,7 +682,7 @@
         <v>5.6</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0.05</v>
@@ -858,7 +870,7 @@
         <v>0.6</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -966,7 +978,7 @@
         <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -974,7 +986,7 @@
         <v>6.7</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -992,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1000,7 +1012,7 @@
         <v>7.3</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1015,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -1041,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -1067,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -1093,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -1110,7 +1122,7 @@
         <v>0.2</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3">
         <f>0.375690432016962-0.284781341</f>
@@ -1130,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1144,7 +1156,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3">
         <f>0.218542274052478-0.166594222</f>
@@ -1164,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1178,7 +1190,7 @@
         <v>0.2</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="3">
         <f>0.0847707394646167-0.048417705</f>
@@ -1198,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1224,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1232,7 +1244,7 @@
         <v>6.9</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1247,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1258,7 +1270,7 @@
         <v>6.7</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>0.06</v>
@@ -1276,7 +1288,7 @@
         <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1284,7 +1296,7 @@
         <v>6.5</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>0.03</v>
@@ -1302,7 +1314,7 @@
         <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1310,7 +1322,7 @@
         <v>6.3</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>0.04</v>
@@ -1328,7 +1340,7 @@
         <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1336,7 +1348,7 @@
         <v>10.6</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1351,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
@@ -1359,22 +1371,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9.8010000000000002</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>1.599</v>
+        <v>0.05</v>
       </c>
       <c r="C29">
-        <v>1.1639999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="D29">
-        <v>0.83</v>
+        <v>0.1744</v>
       </c>
       <c r="E29">
-        <v>0.12</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="F29">
-        <v>0.21</v>
+        <v>0.1089</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1383,30 +1395,30 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>7.96</v>
+        <v>5.9</v>
       </c>
       <c r="B30">
-        <v>0.58599999999999997</v>
+        <v>0.05</v>
       </c>
       <c r="C30">
-        <v>0.27700000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="D30">
-        <v>0.63</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="E30">
-        <v>0.26</v>
+        <v>0.126</v>
       </c>
       <c r="F30">
-        <v>0.36</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1415,30 +1427,30 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>7.452</v>
+        <v>5.8</v>
       </c>
       <c r="B31">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C31">
-        <v>0.251</v>
+        <v>0.05</v>
       </c>
       <c r="D31">
-        <v>0.54</v>
+        <v>9.3640000000000001E-2</v>
       </c>
       <c r="E31">
-        <v>0.32</v>
+        <v>6.182E-2</v>
       </c>
       <c r="F31">
-        <v>0.36</v>
+        <v>6.3909999999999995E-2</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1447,30 +1459,30 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>7.14</v>
+        <v>5.7</v>
       </c>
       <c r="B32">
-        <v>3.9E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C32">
-        <v>7.5999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D32">
-        <v>0.46</v>
+        <v>5.5960000000000003E-2</v>
       </c>
       <c r="E32">
-        <v>0.36</v>
+        <v>7.1410000000000001E-2</v>
       </c>
       <c r="F32">
-        <v>0.32</v>
+        <v>3.3619999999999997E-2</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1479,15 +1491,15 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="B33">
         <v>0.05</v>
@@ -1496,13 +1508,13 @@
         <v>0.05</v>
       </c>
       <c r="D33">
-        <v>0.1744</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="E33">
-        <v>9.2499999999999999E-2</v>
+        <v>2.5440000000000001E-2</v>
       </c>
       <c r="F33">
-        <v>0.1089</v>
+        <v>8.3400000000000002E-3</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1511,15 +1523,15 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="B34">
         <v>0.05</v>
@@ -1527,14 +1539,14 @@
       <c r="C34">
         <v>0.05</v>
       </c>
-      <c r="D34">
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="E34">
-        <v>0.126</v>
-      </c>
-      <c r="F34">
-        <v>7.3599999999999999E-2</v>
+      <c r="D34" s="1">
+        <v>7.2459999999999998E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.7310999999999998E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.506E-3</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1543,15 +1555,15 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="B35">
         <v>0.05</v>
@@ -1559,14 +1571,14 @@
       <c r="C35">
         <v>0.05</v>
       </c>
-      <c r="D35">
-        <v>9.3640000000000001E-2</v>
-      </c>
-      <c r="E35">
-        <v>6.182E-2</v>
-      </c>
-      <c r="F35">
-        <v>6.3909999999999995E-2</v>
+      <c r="D35" s="1">
+        <v>3.5330000000000001E-3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.5084999999999999E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.457E-3</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1575,15 +1587,15 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="B36">
         <v>0.05</v>
@@ -1591,14 +1603,14 @@
       <c r="C36">
         <v>0.05</v>
       </c>
-      <c r="D36">
-        <v>5.5960000000000003E-2</v>
-      </c>
-      <c r="E36">
-        <v>7.1410000000000001E-2</v>
-      </c>
-      <c r="F36">
-        <v>3.3619999999999997E-2</v>
+      <c r="D36" s="1">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8.0440000000000004E-4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4.036E-4</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1607,15 +1619,15 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="B37">
         <v>0.05</v>
@@ -1623,14 +1635,14 @@
       <c r="C37">
         <v>0.05</v>
       </c>
-      <c r="D37">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="E37">
-        <v>2.5440000000000001E-2</v>
-      </c>
-      <c r="F37">
-        <v>8.3400000000000002E-3</v>
+      <c r="D37" s="1">
+        <v>2.758E-5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8.1100000000000003E-6</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5.5500000000000002E-6</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1639,15 +1651,15 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B38">
         <v>0.05</v>
@@ -1656,13 +1668,13 @@
         <v>0.05</v>
       </c>
       <c r="D38" s="1">
-        <v>7.2459999999999998E-3</v>
+        <v>2.6679999999999999E-5</v>
       </c>
       <c r="E38" s="1">
-        <v>2.7310999999999998E-2</v>
+        <v>1.343E-5</v>
       </c>
       <c r="F38" s="1">
-        <v>3.506E-3</v>
+        <v>5.5300000000000004E-6</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1671,15 +1683,15 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>0.05</v>
@@ -1688,13 +1700,13 @@
         <v>0.05</v>
       </c>
       <c r="D39" s="1">
-        <v>3.5330000000000001E-3</v>
+        <v>2.2670000000000001E-5</v>
       </c>
       <c r="E39" s="1">
-        <v>1.5084999999999999E-2</v>
+        <v>8.3999999999999992E-6</v>
       </c>
       <c r="F39" s="1">
-        <v>2.457E-3</v>
+        <v>4.4900000000000002E-6</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1703,30 +1715,24 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>5.3</v>
-      </c>
-      <c r="B40">
-        <v>0.05</v>
-      </c>
-      <c r="C40">
-        <v>0.05</v>
-      </c>
-      <c r="D40" s="1">
-        <v>5.1000000000000004E-4</v>
-      </c>
-      <c r="E40" s="1">
-        <v>8.0440000000000004E-4</v>
-      </c>
-      <c r="F40" s="1">
-        <v>4.036E-4</v>
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40">
+        <v>0.93</v>
+      </c>
+      <c r="E40">
+        <v>0.04</v>
+      </c>
+      <c r="F40">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1735,30 +1741,24 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J40" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5.2</v>
-      </c>
-      <c r="B41">
-        <v>0.05</v>
-      </c>
-      <c r="C41">
-        <v>0.05</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2.758E-5</v>
-      </c>
-      <c r="E41" s="1">
-        <v>8.1100000000000003E-6</v>
-      </c>
-      <c r="F41" s="1">
-        <v>5.5500000000000002E-6</v>
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>0.62</v>
+      </c>
+      <c r="E41">
+        <v>0.15</v>
+      </c>
+      <c r="F41">
+        <v>0.36</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1767,30 +1767,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J41" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B42">
-        <v>0.05</v>
-      </c>
-      <c r="C42">
-        <v>0.05</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2.6679999999999999E-5</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1.343E-5</v>
-      </c>
-      <c r="F42" s="1">
-        <v>5.5300000000000004E-6</v>
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1799,15 +1787,15 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5</v>
+        <v>6.55</v>
       </c>
       <c r="B43">
         <v>0.05</v>
@@ -1815,14 +1803,14 @@
       <c r="C43">
         <v>0.05</v>
       </c>
-      <c r="D43" s="1">
-        <v>2.2670000000000001E-5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>8.3999999999999992E-6</v>
-      </c>
-      <c r="F43" s="1">
-        <v>4.4900000000000002E-6</v>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1831,30 +1819,30 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>6.87</v>
+        <v>6.35</v>
       </c>
       <c r="B44">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="C44">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="D44">
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E44">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F44">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1866,27 +1854,27 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>6.46</v>
+        <v>6.15</v>
       </c>
       <c r="B45">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="C45">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="D45">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E45">
-        <v>0.33</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F45">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1898,27 +1886,27 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
       <c r="B46">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C46">
-        <v>0.2</v>
-      </c>
-      <c r="D46">
-        <v>0.21</v>
+        <v>0.05</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
       </c>
       <c r="E46">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1930,15 +1918,21 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>6.3</v>
+        <v>5.95</v>
+      </c>
+      <c r="B47">
+        <v>0.05</v>
+      </c>
+      <c r="C47">
+        <v>0.05</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1953,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
         <v>30</v>
@@ -1961,7 +1955,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>6.55</v>
+        <v>5.9</v>
       </c>
       <c r="B48">
         <v>0.05</v>
@@ -1970,7 +1964,7 @@
         <v>0.05</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1988,27 +1982,27 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>6.35</v>
+        <v>6.87</v>
       </c>
       <c r="B49">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="C49">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="D49">
-        <v>0.28999999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="E49">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="F49">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2020,27 +2014,27 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>6.15</v>
+        <v>6.46</v>
       </c>
       <c r="B50">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="C50">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="D50">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E50">
-        <v>0.14000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="F50">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2052,27 +2046,27 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="B51">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C51">
-        <v>0.05</v>
-      </c>
-      <c r="D51" t="s">
-        <v>43</v>
+        <v>0.2</v>
+      </c>
+      <c r="D51">
+        <v>0.21</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2084,27 +2078,27 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>5.95</v>
+        <v>9.8010000000000002</v>
       </c>
       <c r="B52">
-        <v>0.05</v>
+        <v>1.599</v>
       </c>
       <c r="C52">
-        <v>0.05</v>
-      </c>
-      <c r="D52" t="s">
-        <v>44</v>
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.83</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2116,27 +2110,27 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>5.9</v>
+        <v>7.96</v>
       </c>
       <c r="B53">
-        <v>0.05</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="C53">
-        <v>0.05</v>
-      </c>
-      <c r="D53" t="s">
-        <v>43</v>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D53">
+        <v>0.63</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2148,21 +2142,27 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>60</v>
+      <c r="A54">
+        <v>7.452</v>
+      </c>
+      <c r="B54">
+        <v>0.1</v>
+      </c>
+      <c r="C54">
+        <v>0.251</v>
       </c>
       <c r="D54">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="E54">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="F54">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2171,24 +2171,30 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>59</v>
+      <c r="A55">
+        <v>7.14</v>
+      </c>
+      <c r="B55">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C55">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D55">
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
       <c r="E55">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="F55">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2197,89 +2203,77 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D56">
+        <v>0.89</v>
+      </c>
+      <c r="E56">
+        <v>0.08</v>
+      </c>
+      <c r="F56">
+        <v>0.21</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <v>0.81</v>
+      </c>
+      <c r="E57">
+        <v>0.12</v>
+      </c>
+      <c r="F57">
+        <v>0.24</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58">
         <v>0.48</v>
       </c>
-      <c r="E56">
+      <c r="E58">
         <v>0.15</v>
       </c>
-      <c r="F56">
+      <c r="F58">
         <v>0.22</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>11</v>
-      </c>
-      <c r="B57">
-        <v>3.18</v>
-      </c>
-      <c r="C57">
-        <v>1.38</v>
-      </c>
-      <c r="D57">
-        <v>0.88</v>
-      </c>
-      <c r="E57">
-        <v>0.11</v>
-      </c>
-      <c r="F57">
-        <v>0.13</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>8.41</v>
-      </c>
-      <c r="B58">
-        <v>1.02</v>
-      </c>
-      <c r="C58">
-        <v>0.9</v>
-      </c>
-      <c r="D58">
-        <v>0.79</v>
-      </c>
-      <c r="E58">
-        <v>0.13</v>
-      </c>
-      <c r="F58">
-        <v>0.21</v>
-      </c>
       <c r="G58">
         <v>0</v>
       </c>
@@ -2287,30 +2281,24 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J58" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>6.96</v>
-      </c>
-      <c r="B59">
-        <v>0.53</v>
-      </c>
-      <c r="C59">
-        <v>0.42</v>
-      </c>
-      <c r="D59">
-        <v>0.63</v>
+        <v>6.3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
       </c>
       <c r="E59">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2319,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J59" t="s">
         <v>62</v>
@@ -2327,39 +2315,225 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>0.64</v>
+      </c>
+      <c r="E60">
+        <v>0.13</v>
+      </c>
+      <c r="F60">
+        <v>0.21</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>3.18</v>
+      </c>
+      <c r="C61">
+        <v>1.38</v>
+      </c>
+      <c r="D61">
+        <v>0.88</v>
+      </c>
+      <c r="E61">
+        <v>0.11</v>
+      </c>
+      <c r="F61">
+        <v>0.13</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>8.41</v>
+      </c>
+      <c r="B62">
+        <v>1.02</v>
+      </c>
+      <c r="C62">
+        <v>0.9</v>
+      </c>
+      <c r="D62">
+        <v>0.79</v>
+      </c>
+      <c r="E62">
+        <v>0.13</v>
+      </c>
+      <c r="F62">
+        <v>0.21</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6.96</v>
+      </c>
+      <c r="B63">
+        <v>0.53</v>
+      </c>
+      <c r="C63">
+        <v>0.42</v>
+      </c>
+      <c r="D63">
+        <v>0.63</v>
+      </c>
+      <c r="E63">
+        <v>0.18</v>
+      </c>
+      <c r="F63">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>5.9</v>
       </c>
-      <c r="B60">
+      <c r="B64">
         <v>0.49</v>
       </c>
-      <c r="C60">
+      <c r="C64">
         <v>0.4</v>
       </c>
-      <c r="D60">
+      <c r="D64">
         <v>0.17</v>
       </c>
-      <c r="E60">
+      <c r="E64">
         <v>0.23</v>
       </c>
-      <c r="F60">
+      <c r="F64">
         <v>0.16</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" t="s">
-        <v>62</v>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>55</v>
+      </c>
+      <c r="J64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B65">
+        <v>1.3</v>
+      </c>
+      <c r="C65">
+        <v>1.3</v>
+      </c>
+      <c r="D65">
+        <v>0.64</v>
+      </c>
+      <c r="E65">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.13</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6.5</v>
+      </c>
+      <c r="B66">
+        <v>1.5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0.33</v>
+      </c>
+      <c r="E66">
+        <v>0.08</v>
+      </c>
+      <c r="F66">
+        <v>0.17</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D57:F60">
-    <sortCondition descending="1" ref="D57:D60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D61:F64">
+    <sortCondition descending="1" ref="D61:D64"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/xHI_EoR.xlsx
+++ b/datasets/xHI_EoR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD1546F-3309-4DC5-BDF0-4CDF5E90EB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193461EB-FF04-4651-8642-452C73367F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
   <si>
     <t>z</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>Jones+25</t>
+  </si>
+  <si>
+    <t>GP trough, Damping wing</t>
+  </si>
+  <si>
+    <t>Angular Correlation function</t>
+  </si>
+  <si>
+    <t>Umeda+25a</t>
+  </si>
+  <si>
+    <t>Umeda+25b</t>
   </si>
 </sst>
 </file>
@@ -575,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2531,6 +2543,292 @@
         <v>61</v>
       </c>
     </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>7.3</v>
+      </c>
+      <c r="D67">
+        <v>0.75</v>
+      </c>
+      <c r="E67">
+        <v>0.09</v>
+      </c>
+      <c r="F67">
+        <v>0.13</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>0.18</v>
+      </c>
+      <c r="E68">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F68">
+        <v>0.12</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6.6</v>
+      </c>
+      <c r="D69">
+        <v>0.21</v>
+      </c>
+      <c r="E69">
+        <v>0.19</v>
+      </c>
+      <c r="F69">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>6.6</v>
+      </c>
+      <c r="D70">
+        <v>0.15</v>
+      </c>
+      <c r="E70">
+        <v>0.1</v>
+      </c>
+      <c r="F70">
+        <v>0.08</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>56</v>
+      </c>
+      <c r="J70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5.7</v>
+      </c>
+      <c r="D71">
+        <v>0.06</v>
+      </c>
+      <c r="E71">
+        <v>0.12</v>
+      </c>
+      <c r="F71">
+        <v>0.03</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5.7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>10.4</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0.4</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8.6</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.2</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>0.65</v>
+      </c>
+      <c r="E75">
+        <v>0.27</v>
+      </c>
+      <c r="F75">
+        <v>0.35</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>67</v>
+      </c>
+      <c r="J75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5.8</v>
+      </c>
+      <c r="D76">
+        <v>0.25</v>
+      </c>
+      <c r="E76">
+        <v>0.1</v>
+      </c>
+      <c r="F76">
+        <v>0.2</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>67</v>
+      </c>
+      <c r="J76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0.12</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>67</v>
+      </c>
+      <c r="J77" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D61:F64">
     <sortCondition descending="1" ref="D61:D64"/>
